--- a/verbos.xlsx
+++ b/verbos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0cbd72304e6e8b90/PyConj/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\istva\PycharmProjects\Conjugador6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{32660026-C9CF-4453-B1EC-0620489D4F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C88E7741-AA03-44E9-B64F-5A7530F206C4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6444C0-3FCA-4518-880D-37AA28361B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="verbos" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Munka9" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">verbos!$A$1:$S$248</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">verbos!$A$1:$S$279</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4092" uniqueCount="2988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4208" uniqueCount="3058">
   <si>
     <t>fiú</t>
   </si>
@@ -20160,9 +20160,6 @@
     <t>eí</t>
   </si>
   <si>
-    <t>í</t>
-  </si>
-  <si>
     <t>ei, g</t>
   </si>
   <si>
@@ -20191,6 +20188,219 @@
   </si>
   <si>
     <t>folytatni</t>
+  </si>
+  <si>
+    <t>construir</t>
+  </si>
+  <si>
+    <t>incluir</t>
+  </si>
+  <si>
+    <t>influir</t>
+  </si>
+  <si>
+    <t>atribuir</t>
+  </si>
+  <si>
+    <t>contribuir</t>
+  </si>
+  <si>
+    <t>distribuir</t>
+  </si>
+  <si>
+    <t>huir</t>
+  </si>
+  <si>
+    <t>sustituir</t>
+  </si>
+  <si>
+    <t>excluir</t>
+  </si>
+  <si>
+    <t>építeni</t>
+  </si>
+  <si>
+    <t>belefoglalni</t>
+  </si>
+  <si>
+    <t>befolyásolni</t>
+  </si>
+  <si>
+    <t>tulajdonítani</t>
+  </si>
+  <si>
+    <t>hozzájárulni</t>
+  </si>
+  <si>
+    <t>szétosztani</t>
+  </si>
+  <si>
+    <t>elmenekülni</t>
+  </si>
+  <si>
+    <t>helyettesíteni</t>
+  </si>
+  <si>
+    <t>kizárni</t>
+  </si>
+  <si>
+    <t>retribuir</t>
+  </si>
+  <si>
+    <t>intuir</t>
+  </si>
+  <si>
+    <t>concluir</t>
+  </si>
+  <si>
+    <t>desconstruir</t>
+  </si>
+  <si>
+    <t>lebontani (elméleti értelemben)</t>
+  </si>
+  <si>
+    <t>befejezni, következtetni</t>
+  </si>
+  <si>
+    <t>megérezni, sejteni</t>
+  </si>
+  <si>
+    <t>megtéríteni, viszonozni</t>
+  </si>
+  <si>
+    <t>vaciar</t>
+  </si>
+  <si>
+    <t>guiar</t>
+  </si>
+  <si>
+    <t>desviar</t>
+  </si>
+  <si>
+    <t>variar</t>
+  </si>
+  <si>
+    <t>ampliar</t>
+  </si>
+  <si>
+    <t>confiar</t>
+  </si>
+  <si>
+    <t>enviar</t>
+  </si>
+  <si>
+    <t>elküldeni</t>
+  </si>
+  <si>
+    <t>megbízni</t>
+  </si>
+  <si>
+    <t>kibővíteni</t>
+  </si>
+  <si>
+    <t>változtatni</t>
+  </si>
+  <si>
+    <t>eltéríteni</t>
+  </si>
+  <si>
+    <t>kiüríteni</t>
+  </si>
+  <si>
+    <t>criar</t>
+  </si>
+  <si>
+    <t>nevelni</t>
+  </si>
+  <si>
+    <t>copiar</t>
+  </si>
+  <si>
+    <t>másolni</t>
+  </si>
+  <si>
+    <t>limpiar</t>
+  </si>
+  <si>
+    <t>takarítani</t>
+  </si>
+  <si>
+    <t>desreír</t>
+  </si>
+  <si>
+    <t>kinevetni</t>
+  </si>
+  <si>
+    <t>freír</t>
+  </si>
+  <si>
+    <t>sütni</t>
+  </si>
+  <si>
+    <t>helar</t>
+  </si>
+  <si>
+    <t>fagyni</t>
+  </si>
+  <si>
+    <t>létezni</t>
+  </si>
+  <si>
+    <t>oler</t>
+  </si>
+  <si>
+    <t>szagolni, bűzleni</t>
+  </si>
+  <si>
+    <t>caber</t>
+  </si>
+  <si>
+    <t>beleférni, elférni, beilleszkedni</t>
+  </si>
+  <si>
+    <t>nevar</t>
+  </si>
+  <si>
+    <t>havazni</t>
+  </si>
+  <si>
+    <t>llover</t>
+  </si>
+  <si>
+    <t>esni (eső), esőzni</t>
+  </si>
+  <si>
+    <t>abolir</t>
+  </si>
+  <si>
+    <t>megszüntetni</t>
+  </si>
+  <si>
+    <t>relucir</t>
+  </si>
+  <si>
+    <t>ragyogni, csillogni</t>
+  </si>
+  <si>
+    <t>precaver</t>
+  </si>
+  <si>
+    <t>elővigyázatosnak lenni</t>
+  </si>
+  <si>
+    <t>atenerse</t>
+  </si>
+  <si>
+    <t>alkalmazkodni</t>
+  </si>
+  <si>
+    <t>fényleni</t>
+  </si>
+  <si>
+    <t>reñir</t>
+  </si>
+  <si>
+    <t>veszekedni</t>
   </si>
 </sst>
 </file>
@@ -20385,10 +20595,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20678,38 +20884,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S252"/>
+  <dimension ref="A1:S290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C206" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C241" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C252" sqref="C252"/>
+      <selection pane="bottomRight" activeCell="C289" sqref="C289"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6328125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="19.1796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="20" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="21.81640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="21.7265625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="19.1796875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="18.7265625" style="3" customWidth="1"/>
     <col min="15" max="15" width="16" style="3" customWidth="1"/>
-    <col min="16" max="16" width="21.85546875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="19.85546875" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="3"/>
+    <col min="16" max="16" width="21.81640625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="18.54296875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="20.453125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="19.81640625" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B1" s="9" t="s">
         <v>927</v>
       </c>
@@ -20755,7 +20961,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C2" s="3" t="s">
         <v>928</v>
       </c>
@@ -20781,7 +20987,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>943</v>
       </c>
@@ -20840,7 +21046,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="87" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>943</v>
       </c>
@@ -20899,13 +21105,16 @@
         <v>969</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>943</v>
+        <v>3038</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>970</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>970</v>
+      </c>
       <c r="D5" s="3" t="s">
         <v>971</v>
       </c>
@@ -20955,7 +21164,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>980</v>
       </c>
@@ -21014,7 +21223,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="87" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>993</v>
       </c>
@@ -21073,7 +21282,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>2859</v>
       </c>
@@ -21132,7 +21341,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="87" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>1015</v>
       </c>
@@ -21191,7 +21400,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="87" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>1028</v>
       </c>
@@ -21250,7 +21459,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>1041</v>
       </c>
@@ -21309,7 +21518,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="87" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>1054</v>
       </c>
@@ -21365,7 +21574,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="87" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>1069</v>
       </c>
@@ -21421,7 +21630,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="87" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>1081</v>
       </c>
@@ -21477,7 +21686,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="87" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>1093</v>
       </c>
@@ -21533,7 +21742,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="87" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>1105</v>
       </c>
@@ -21589,7 +21798,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>1117</v>
       </c>
@@ -21645,7 +21854,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>1129</v>
       </c>
@@ -21701,7 +21910,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>1141</v>
       </c>
@@ -21757,7 +21966,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>1153</v>
       </c>
@@ -21813,7 +22022,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>1165</v>
       </c>
@@ -21869,7 +22078,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>1177</v>
       </c>
@@ -21925,7 +22134,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>2860</v>
       </c>
@@ -21981,7 +22190,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>1200</v>
       </c>
@@ -22037,7 +22246,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>1212</v>
       </c>
@@ -22093,7 +22302,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>1224</v>
       </c>
@@ -22149,7 +22358,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>1236</v>
       </c>
@@ -22205,7 +22414,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>1248</v>
       </c>
@@ -22261,7 +22470,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>1258</v>
       </c>
@@ -22317,7 +22526,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>1270</v>
       </c>
@@ -22373,7 +22582,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>1282</v>
       </c>
@@ -22429,7 +22638,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>1294</v>
       </c>
@@ -22485,7 +22694,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>1306</v>
       </c>
@@ -22541,7 +22750,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>1318</v>
       </c>
@@ -22597,7 +22806,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>1330</v>
       </c>
@@ -22653,7 +22862,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>1341</v>
       </c>
@@ -22709,7 +22918,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>1353</v>
       </c>
@@ -22765,7 +22974,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>1363</v>
       </c>
@@ -22821,7 +23030,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>1375</v>
       </c>
@@ -22877,7 +23086,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>1387</v>
       </c>
@@ -22933,7 +23142,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>1399</v>
       </c>
@@ -22989,7 +23198,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>1411</v>
       </c>
@@ -23045,7 +23254,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>1422</v>
       </c>
@@ -23101,7 +23310,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>1434</v>
       </c>
@@ -23157,7 +23366,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>1422</v>
       </c>
@@ -23213,7 +23422,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>1457</v>
       </c>
@@ -23269,7 +23478,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>1469</v>
       </c>
@@ -23325,7 +23534,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>1481</v>
       </c>
@@ -23381,7 +23590,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>1493</v>
       </c>
@@ -23437,7 +23646,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>1505</v>
       </c>
@@ -23493,7 +23702,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>1517</v>
       </c>
@@ -23549,7 +23758,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>1529</v>
       </c>
@@ -23605,7 +23814,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>1541</v>
       </c>
@@ -23661,7 +23870,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>1551</v>
       </c>
@@ -23717,7 +23926,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>1563</v>
       </c>
@@ -23773,7 +23982,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>1575</v>
       </c>
@@ -23829,7 +24038,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>1587</v>
       </c>
@@ -23885,7 +24094,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>1599</v>
       </c>
@@ -23941,7 +24150,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>1611</v>
       </c>
@@ -23997,7 +24206,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>1623</v>
       </c>
@@ -24053,7 +24262,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>1635</v>
       </c>
@@ -24109,7 +24318,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>1647</v>
       </c>
@@ -24165,7 +24374,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>1659</v>
       </c>
@@ -24221,7 +24430,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>1671</v>
       </c>
@@ -24277,7 +24486,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>1683</v>
       </c>
@@ -24333,7 +24542,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>1695</v>
       </c>
@@ -24389,7 +24598,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>1707</v>
       </c>
@@ -24445,7 +24654,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>1719</v>
       </c>
@@ -24501,7 +24710,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>1731</v>
       </c>
@@ -24557,7 +24766,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>1743</v>
       </c>
@@ -24613,7 +24822,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>1755</v>
       </c>
@@ -24669,7 +24878,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>1767</v>
       </c>
@@ -24725,7 +24934,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>1779</v>
       </c>
@@ -24781,7 +24990,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>1791</v>
       </c>
@@ -24789,7 +24998,7 @@
         <v>1792</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>1793</v>
@@ -24837,7 +25046,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>2858</v>
       </c>
@@ -24893,7 +25102,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>1814</v>
       </c>
@@ -24949,7 +25158,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>2857</v>
       </c>
@@ -25005,7 +25214,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>1837</v>
       </c>
@@ -25061,7 +25270,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>1849</v>
       </c>
@@ -25069,7 +25278,7 @@
         <v>1850</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>1851</v>
@@ -25117,7 +25326,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>1861</v>
       </c>
@@ -25173,7 +25382,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>1873</v>
       </c>
@@ -25229,7 +25438,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>1885</v>
       </c>
@@ -25285,7 +25494,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>1895</v>
       </c>
@@ -25341,7 +25550,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>1906</v>
       </c>
@@ -25397,7 +25606,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>1917</v>
       </c>
@@ -25453,7 +25662,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>2856</v>
       </c>
@@ -25509,7 +25718,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>1938</v>
       </c>
@@ -25565,7 +25774,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>1949</v>
       </c>
@@ -25621,7 +25830,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>1960</v>
       </c>
@@ -25677,7 +25886,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>1971</v>
       </c>
@@ -25733,7 +25942,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>2855</v>
       </c>
@@ -25789,7 +25998,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>1992</v>
       </c>
@@ -25845,7 +26054,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>2003</v>
       </c>
@@ -25901,14 +26110,14 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>2014</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>2015</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="11" t="s">
         <v>2967</v>
       </c>
       <c r="D94" s="3" t="s">
@@ -25957,7 +26166,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>2025</v>
       </c>
@@ -26013,7 +26222,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>2036</v>
       </c>
@@ -26069,14 +26278,14 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>2047</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>2048</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="11" t="s">
         <v>2967</v>
       </c>
       <c r="D97" s="3" t="s">
@@ -26125,7 +26334,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>2058</v>
       </c>
@@ -26181,7 +26390,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>2070</v>
       </c>
@@ -26189,7 +26398,7 @@
         <v>2071</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>2072</v>
@@ -26237,14 +26446,14 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>2081</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>2082</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="11" t="s">
         <v>2968</v>
       </c>
       <c r="D100" s="3" t="s">
@@ -26293,7 +26502,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>2092</v>
       </c>
@@ -26349,7 +26558,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>2103</v>
       </c>
@@ -26405,14 +26614,14 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>2114</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>2115</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="11" t="s">
         <v>2970</v>
       </c>
       <c r="D103" s="3" t="s">
@@ -26461,7 +26670,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>2125</v>
       </c>
@@ -26517,7 +26726,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>2137</v>
       </c>
@@ -26573,7 +26782,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>2854</v>
       </c>
@@ -26629,7 +26838,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>2158</v>
       </c>
@@ -26685,7 +26894,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>2170</v>
       </c>
@@ -26741,7 +26950,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="109" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>2182</v>
       </c>
@@ -26797,7 +27006,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="110" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>2193</v>
       </c>
@@ -26853,7 +27062,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="111" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>2204</v>
       </c>
@@ -26909,7 +27118,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="112" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>2216</v>
       </c>
@@ -26965,7 +27174,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="113" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>2228</v>
       </c>
@@ -27021,7 +27230,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="114" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>2240</v>
       </c>
@@ -27077,7 +27286,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="115" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>2252</v>
       </c>
@@ -27133,7 +27342,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="116" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>367</v>
       </c>
@@ -27189,7 +27398,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>2274</v>
       </c>
@@ -27245,7 +27454,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="118" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>2286</v>
       </c>
@@ -27301,7 +27510,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>980</v>
       </c>
@@ -27357,7 +27566,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="120" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>2309</v>
       </c>
@@ -27413,7 +27622,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="121" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>2321</v>
       </c>
@@ -27469,7 +27678,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="122" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>2333</v>
       </c>
@@ -27525,7 +27734,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="123" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>2345</v>
       </c>
@@ -27581,7 +27790,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>2357</v>
       </c>
@@ -27637,7 +27846,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="125" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>2369</v>
       </c>
@@ -27693,7 +27902,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="126" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
         <v>2381</v>
       </c>
@@ -27749,7 +27958,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A127" s="5" t="s">
         <v>2391</v>
       </c>
@@ -27774,7 +27983,7 @@
       </c>
       <c r="P127" s="7"/>
     </row>
-    <row r="128" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>2393</v>
       </c>
@@ -27830,7 +28039,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>2405</v>
       </c>
@@ -27886,7 +28095,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A130" s="5" t="s">
         <v>2853</v>
       </c>
@@ -27942,7 +28151,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>2428</v>
       </c>
@@ -27998,7 +28207,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>2439</v>
       </c>
@@ -28054,7 +28263,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="133" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>2450</v>
       </c>
@@ -28110,14 +28319,14 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
         <v>2462</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>2463</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="11" t="s">
         <v>2954</v>
       </c>
       <c r="D134" s="3" t="s">
@@ -28166,7 +28375,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>2473</v>
       </c>
@@ -28222,7 +28431,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="136" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>2485</v>
       </c>
@@ -28278,7 +28487,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
         <v>2497</v>
       </c>
@@ -28334,7 +28543,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>2507</v>
       </c>
@@ -28390,7 +28599,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>2519</v>
       </c>
@@ -28446,7 +28655,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>2531</v>
       </c>
@@ -28502,7 +28711,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>2543</v>
       </c>
@@ -28558,7 +28767,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
         <v>2553</v>
       </c>
@@ -28614,7 +28823,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>2565</v>
       </c>
@@ -28670,14 +28879,14 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>2577</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>2578</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="11" t="s">
         <v>2954</v>
       </c>
       <c r="D144" s="3" t="s">
@@ -28726,7 +28935,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="145" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>2588</v>
       </c>
@@ -28782,7 +28991,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="146" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>2600</v>
       </c>
@@ -28838,7 +29047,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="147" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>2612</v>
       </c>
@@ -28894,7 +29103,7 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="148" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>2624</v>
       </c>
@@ -28911,13 +29120,16 @@
         <v>955</v>
       </c>
     </row>
-    <row r="149" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>2391</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>2626</v>
       </c>
+      <c r="C149" s="11" t="s">
+        <v>2968</v>
+      </c>
       <c r="D149" s="3" t="s">
         <v>2083</v>
       </c>
@@ -28964,7 +29176,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="150" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>2635</v>
       </c>
@@ -29020,7 +29232,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="151" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
         <v>2647</v>
       </c>
@@ -29076,7 +29288,7 @@
         <v>2658</v>
       </c>
     </row>
-    <row r="152" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
         <v>2659</v>
       </c>
@@ -29132,7 +29344,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="153" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>2671</v>
       </c>
@@ -29149,7 +29361,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="154" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>2673</v>
       </c>
@@ -29166,7 +29378,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="155" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>2675</v>
       </c>
@@ -29183,7 +29395,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="156" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>2677</v>
       </c>
@@ -29200,14 +29412,14 @@
         <v>955</v>
       </c>
     </row>
-    <row r="157" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>2679</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>2680</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C157" s="11" t="s">
         <v>2954</v>
       </c>
       <c r="J157" s="5" t="s">
@@ -29217,7 +29429,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="158" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>2681</v>
       </c>
@@ -29234,7 +29446,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="159" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>2683</v>
       </c>
@@ -29251,7 +29463,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="160" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
         <v>2685</v>
       </c>
@@ -29268,7 +29480,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>2687</v>
       </c>
@@ -29285,7 +29497,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
         <v>2689</v>
       </c>
@@ -29302,14 +29514,14 @@
         <v>955</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
         <v>2689</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>2691</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C163" s="11" t="s">
         <v>104</v>
       </c>
       <c r="J163" s="5" t="s">
@@ -29319,7 +29531,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>2692</v>
       </c>
@@ -29336,7 +29548,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>2694</v>
       </c>
@@ -29353,7 +29565,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
         <v>2696</v>
       </c>
@@ -29370,7 +29582,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
         <v>2698</v>
       </c>
@@ -29387,7 +29599,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
         <v>2700</v>
       </c>
@@ -29404,7 +29616,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
         <v>2369</v>
       </c>
@@ -29421,7 +29633,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A170" s="5" t="s">
         <v>2852</v>
       </c>
@@ -29438,7 +29650,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
         <v>2703</v>
       </c>
@@ -29455,7 +29667,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
         <v>2705</v>
       </c>
@@ -29472,7 +29684,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
         <v>1117</v>
       </c>
@@ -29489,7 +29701,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
         <v>2708</v>
       </c>
@@ -29506,7 +29718,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>2710</v>
       </c>
@@ -29523,7 +29735,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>2712</v>
       </c>
@@ -29540,7 +29752,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
         <v>2956</v>
       </c>
@@ -29557,7 +29769,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
         <v>2715</v>
       </c>
@@ -29574,7 +29786,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
         <v>2717</v>
       </c>
@@ -29591,7 +29803,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
         <v>2718</v>
       </c>
@@ -29608,7 +29820,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
         <v>2720</v>
       </c>
@@ -29625,7 +29837,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A182" s="5" t="s">
         <v>2722</v>
       </c>
@@ -29642,7 +29854,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A183" s="5" t="s">
         <v>2724</v>
       </c>
@@ -29659,7 +29871,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
         <v>2726</v>
       </c>
@@ -29676,7 +29888,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
         <v>2728</v>
       </c>
@@ -29693,7 +29905,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A186" s="5" t="s">
         <v>2730</v>
       </c>
@@ -29710,7 +29922,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
         <v>2732</v>
       </c>
@@ -29727,7 +29939,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
         <v>2734</v>
       </c>
@@ -29744,7 +29956,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
         <v>755</v>
       </c>
@@ -29761,7 +29973,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
         <v>2737</v>
       </c>
@@ -29778,7 +29990,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
         <v>2737</v>
       </c>
@@ -29795,7 +30007,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A192" s="5" t="s">
         <v>2740</v>
       </c>
@@ -29806,7 +30018,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
         <v>2742</v>
       </c>
@@ -29817,7 +30029,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
         <v>2744</v>
       </c>
@@ -29828,7 +30040,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
         <v>2746</v>
       </c>
@@ -29839,7 +30051,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
         <v>2748</v>
       </c>
@@ -29850,7 +30062,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
         <v>2750</v>
       </c>
@@ -29861,7 +30073,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
         <v>2752</v>
       </c>
@@ -29872,7 +30084,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
         <v>2754</v>
       </c>
@@ -29883,7 +30095,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A200" s="5" t="s">
         <v>2756</v>
       </c>
@@ -29894,7 +30106,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
         <v>2758</v>
       </c>
@@ -29905,7 +30117,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="3" t="s">
         <v>2760</v>
       </c>
@@ -29916,7 +30128,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
         <v>2762</v>
       </c>
@@ -29927,7 +30139,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="3" t="s">
         <v>2764</v>
       </c>
@@ -29938,7 +30150,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="s">
         <v>2766</v>
       </c>
@@ -29949,7 +30161,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="3" t="s">
         <v>2768</v>
       </c>
@@ -29960,7 +30172,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A207" s="5" t="s">
         <v>2770</v>
       </c>
@@ -29971,7 +30183,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A208" s="5" t="s">
         <v>2771</v>
       </c>
@@ -29982,7 +30194,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
         <v>2772</v>
       </c>
@@ -29993,7 +30205,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="3" t="s">
         <v>2774</v>
       </c>
@@ -30004,7 +30216,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="3" t="s">
         <v>2776</v>
       </c>
@@ -30015,7 +30227,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A212" s="5" t="s">
         <v>2778</v>
       </c>
@@ -30026,7 +30238,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="3" t="s">
         <v>2779</v>
       </c>
@@ -30037,7 +30249,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="3" t="s">
         <v>2781</v>
       </c>
@@ -30048,7 +30260,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A215" s="5" t="s">
         <v>2783</v>
       </c>
@@ -30059,29 +30271,29 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="s">
         <v>2785</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>2974</v>
       </c>
-      <c r="C216" s="3" t="s">
-        <v>2977</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C216" s="11" t="s">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
         <v>2786</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>2975</v>
       </c>
-      <c r="C217" s="3" t="s">
+      <c r="C217" s="11" t="s">
         <v>2976</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="3" t="s">
         <v>2787</v>
       </c>
@@ -30092,7 +30304,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="3" t="s">
         <v>2887</v>
       </c>
@@ -30103,7 +30315,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="3" t="s">
         <v>2888</v>
       </c>
@@ -30114,7 +30326,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="3" t="s">
         <v>2891</v>
       </c>
@@ -30125,7 +30337,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="3" t="s">
         <v>2893</v>
       </c>
@@ -30136,7 +30348,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="3" t="s">
         <v>2895</v>
       </c>
@@ -30147,7 +30359,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="3" t="s">
         <v>2897</v>
       </c>
@@ -30158,7 +30370,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="3" t="s">
         <v>2899</v>
       </c>
@@ -30169,7 +30381,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="3" t="s">
         <v>2901</v>
       </c>
@@ -30180,7 +30392,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="3" t="s">
         <v>2902</v>
       </c>
@@ -30191,7 +30403,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="3" t="s">
         <v>2905</v>
       </c>
@@ -30202,7 +30414,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="3" t="s">
         <v>2907</v>
       </c>
@@ -30213,7 +30425,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="3" t="s">
         <v>2909</v>
       </c>
@@ -30224,7 +30436,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="3" t="s">
         <v>2912</v>
       </c>
@@ -30235,7 +30447,7 @@
         <v>2965</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="3" t="s">
         <v>2914</v>
       </c>
@@ -30246,7 +30458,7 @@
         <v>2965</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="3" t="s">
         <v>2916</v>
       </c>
@@ -30257,7 +30469,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="3" t="s">
         <v>2918</v>
       </c>
@@ -30268,7 +30480,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="3" t="s">
         <v>2920</v>
       </c>
@@ -30279,7 +30491,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="3" t="s">
         <v>2922</v>
       </c>
@@ -30290,7 +30502,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="3" t="s">
         <v>2935</v>
       </c>
@@ -30301,7 +30513,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="3" t="s">
         <v>2927</v>
       </c>
@@ -30312,7 +30524,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="3" t="s">
         <v>2929</v>
       </c>
@@ -30323,7 +30535,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="3" t="s">
         <v>2932</v>
       </c>
@@ -30334,7 +30546,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="3" t="s">
         <v>2934</v>
       </c>
@@ -30345,7 +30557,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="3" t="s">
         <v>2938</v>
       </c>
@@ -30356,7 +30568,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="3" t="s">
         <v>2942</v>
       </c>
@@ -30367,7 +30579,7 @@
         <v>2939</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="3" t="s">
         <v>2934</v>
       </c>
@@ -30378,7 +30590,7 @@
         <v>2939</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="3" t="s">
         <v>2945</v>
       </c>
@@ -30389,7 +30601,7 @@
         <v>2939</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="3" t="s">
         <v>2947</v>
       </c>
@@ -30400,7 +30612,7 @@
         <v>2939</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="3" t="s">
         <v>2949</v>
       </c>
@@ -30411,7 +30623,7 @@
         <v>2939</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" s="3" t="s">
         <v>2951</v>
       </c>
@@ -30422,52 +30634,470 @@
         <v>2939</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="3" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>2979</v>
+      </c>
+      <c r="C249" s="11" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A250" s="3" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B250" s="3" t="s">
         <v>2981</v>
       </c>
-      <c r="B249" s="3" t="s">
-        <v>2980</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>2979</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="3" t="s">
+      <c r="C250" s="11" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A251" s="3" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B251" s="3" t="s">
         <v>2983</v>
       </c>
-      <c r="B250" s="3" t="s">
-        <v>2982</v>
-      </c>
-      <c r="C250" s="3" t="s">
+      <c r="C251" s="11" t="s">
         <v>2940</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="3" t="s">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A252" s="3" t="s">
+        <v>2986</v>
+      </c>
+      <c r="B252" s="3" t="s">
         <v>2985</v>
       </c>
-      <c r="B251" s="3" t="s">
-        <v>2984</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>2940</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="3" t="s">
+      <c r="C252" s="11" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A253" s="3" t="s">
+        <v>2996</v>
+      </c>
+      <c r="B253" s="3" t="s">
         <v>2987</v>
       </c>
-      <c r="B252" s="3" t="s">
-        <v>2986</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>2979</v>
+      <c r="C253" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A254" s="3" t="s">
+        <v>2997</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>2988</v>
+      </c>
+      <c r="C254" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A255" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C255" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A256" s="3" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>2990</v>
+      </c>
+      <c r="C256" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A257" s="3" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="C257" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A258" s="3" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C258" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A259" s="3" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>2993</v>
+      </c>
+      <c r="C259" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A260" s="3" t="s">
+        <v>3003</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>2994</v>
+      </c>
+      <c r="C260" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A261" s="3" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>2995</v>
+      </c>
+      <c r="C261" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A262" s="3" t="s">
+        <v>3012</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>3005</v>
+      </c>
+      <c r="C262" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A263" s="3" t="s">
+        <v>3011</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>3006</v>
+      </c>
+      <c r="C263" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A264" s="3" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>3007</v>
+      </c>
+      <c r="C264" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A265" s="3" t="s">
+        <v>3009</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>3008</v>
+      </c>
+      <c r="C265" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A266" s="3" t="s">
+        <v>3031</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>3030</v>
+      </c>
+      <c r="C266" s="11" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A267" s="3" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>3013</v>
+      </c>
+      <c r="C267" s="11" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A268" s="3" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>3014</v>
+      </c>
+      <c r="C268" s="11" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A269" s="3" t="s">
+        <v>3024</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>3015</v>
+      </c>
+      <c r="C269" s="11" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A270" s="3" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>2990</v>
+      </c>
+      <c r="C270" s="11" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A271" s="3" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>2463</v>
+      </c>
+      <c r="C271" s="11" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A272" s="3" t="s">
+        <v>3023</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>3016</v>
+      </c>
+      <c r="C272" s="11" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A273" s="3" t="s">
+        <v>3022</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>3017</v>
+      </c>
+      <c r="C273" s="11" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A274" s="3" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C274" s="11" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A275" s="3" t="s">
+        <v>3020</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>3019</v>
+      </c>
+      <c r="C275" s="11" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A276" s="3" t="s">
+        <v>3027</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>3026</v>
+      </c>
+      <c r="C276" s="11" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A277" s="3" t="s">
+        <v>3029</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>3028</v>
+      </c>
+      <c r="C277" s="11" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A278" s="3" t="s">
+        <v>3033</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>3032</v>
+      </c>
+      <c r="C278" s="11" t="s">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A279" s="3" t="s">
+        <v>3035</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>3034</v>
+      </c>
+      <c r="C279" s="11" t="s">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A280" s="3" t="s">
+        <v>3037</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>3036</v>
+      </c>
+      <c r="C280" s="11" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A281" s="3" t="s">
+        <v>3040</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>3039</v>
+      </c>
+      <c r="C281" s="11" t="s">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A282" s="3" t="s">
+        <v>3042</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>3041</v>
+      </c>
+      <c r="C282" s="11" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A283" s="3" t="s">
+        <v>3044</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C283" s="11" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A284" s="3" t="s">
+        <v>3046</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>3045</v>
+      </c>
+      <c r="C284" s="11" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A285" s="3" t="s">
+        <v>3048</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>3047</v>
+      </c>
+      <c r="C285" s="11" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A286" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>3049</v>
+      </c>
+      <c r="C286" s="11" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A287" s="3" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>3051</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A288" s="3" t="s">
+        <v>3054</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>3053</v>
+      </c>
+      <c r="C288" s="11" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A289" s="3" t="s">
+        <v>3055</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>2926</v>
+      </c>
+      <c r="C289" s="11" t="s">
+        <v>2924</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A290" s="3" t="s">
+        <v>3057</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>3056</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>2963</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S248" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <autoFilter ref="A1:S279" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="9" showButton="0"/>
     <filterColumn colId="14" showButton="0"/>
@@ -30492,14 +31122,14 @@
       <selection activeCell="A476" sqref="A476"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="29.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -30507,7 +31137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -30515,7 +31145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -30523,7 +31153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -30531,7 +31161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -30539,7 +31169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -30550,7 +31180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -30558,7 +31188,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -30566,7 +31196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -30574,7 +31204,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -30582,7 +31212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -30590,7 +31220,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -30598,7 +31228,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -30606,7 +31236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -30614,7 +31244,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -30622,7 +31252,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -30630,7 +31260,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -30638,7 +31268,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -30646,7 +31276,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -30654,7 +31284,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -30662,7 +31292,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -30670,7 +31300,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
@@ -30678,7 +31308,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
@@ -30686,7 +31316,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
@@ -30694,7 +31324,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -30702,7 +31332,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
@@ -30710,7 +31340,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
@@ -30718,7 +31348,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
@@ -30726,7 +31356,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
@@ -30734,7 +31364,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
@@ -30742,7 +31372,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>61</v>
       </c>
@@ -30750,7 +31380,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
@@ -30758,7 +31388,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -30766,7 +31396,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>67</v>
       </c>
@@ -30774,7 +31404,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>69</v>
       </c>
@@ -30782,7 +31412,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>71</v>
       </c>
@@ -30790,7 +31420,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>73</v>
       </c>
@@ -30798,7 +31428,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>75</v>
       </c>
@@ -30806,7 +31436,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>77</v>
       </c>
@@ -30814,7 +31444,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>79</v>
       </c>
@@ -30822,7 +31452,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>81</v>
       </c>
@@ -30830,7 +31460,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>83</v>
       </c>
@@ -30838,7 +31468,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>85</v>
       </c>
@@ -30846,7 +31476,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>87</v>
       </c>
@@ -30854,7 +31484,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>89</v>
       </c>
@@ -30862,7 +31492,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>91</v>
       </c>
@@ -30870,7 +31500,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>93</v>
       </c>
@@ -30878,7 +31508,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>95</v>
       </c>
@@ -30886,7 +31516,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>97</v>
       </c>
@@ -30894,7 +31524,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>99</v>
       </c>
@@ -30902,7 +31532,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>101</v>
       </c>
@@ -30910,7 +31540,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>103</v>
       </c>
@@ -30918,7 +31548,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>105</v>
       </c>
@@ -30926,7 +31556,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>107</v>
       </c>
@@ -30934,7 +31564,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>109</v>
       </c>
@@ -30942,7 +31572,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>111</v>
       </c>
@@ -30950,7 +31580,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>113</v>
       </c>
@@ -30958,7 +31588,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>115</v>
       </c>
@@ -30966,7 +31596,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>117</v>
       </c>
@@ -30974,7 +31604,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>119</v>
       </c>
@@ -30982,7 +31612,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>121</v>
       </c>
@@ -30990,7 +31620,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>123</v>
       </c>
@@ -30998,7 +31628,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>125</v>
       </c>
@@ -31006,7 +31636,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>127</v>
       </c>
@@ -31014,7 +31644,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>129</v>
       </c>
@@ -31022,7 +31652,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>131</v>
       </c>
@@ -31030,7 +31660,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>133</v>
       </c>
@@ -31038,7 +31668,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>135</v>
       </c>
@@ -31046,7 +31676,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>137</v>
       </c>
@@ -31054,7 +31684,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>139</v>
       </c>
@@ -31062,7 +31692,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>141</v>
       </c>
@@ -31070,7 +31700,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>53</v>
       </c>
@@ -31078,7 +31708,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
@@ -31086,7 +31716,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
@@ -31094,7 +31724,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>148</v>
       </c>
@@ -31102,7 +31732,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>150</v>
       </c>
@@ -31110,7 +31740,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>152</v>
       </c>
@@ -31118,7 +31748,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>154</v>
       </c>
@@ -31126,7 +31756,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>156</v>
       </c>
@@ -31134,7 +31764,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>158</v>
       </c>
@@ -31142,7 +31772,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
@@ -31150,7 +31780,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
@@ -31158,7 +31788,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>164</v>
       </c>
@@ -31166,7 +31796,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>166</v>
       </c>
@@ -31174,7 +31804,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>168</v>
       </c>
@@ -31182,7 +31812,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>170</v>
       </c>
@@ -31190,7 +31820,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>172</v>
       </c>
@@ -31198,7 +31828,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>174</v>
       </c>
@@ -31206,7 +31836,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>176</v>
       </c>
@@ -31214,7 +31844,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>178</v>
       </c>
@@ -31222,7 +31852,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>180</v>
       </c>
@@ -31230,7 +31860,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>182</v>
       </c>
@@ -31238,7 +31868,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>184</v>
       </c>
@@ -31246,7 +31876,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>186</v>
       </c>
@@ -31254,7 +31884,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>187</v>
       </c>
@@ -31262,7 +31892,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>189</v>
       </c>
@@ -31270,7 +31900,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>191</v>
       </c>
@@ -31278,7 +31908,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>193</v>
       </c>
@@ -31286,7 +31916,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>195</v>
       </c>
@@ -31294,7 +31924,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>197</v>
       </c>
@@ -31302,7 +31932,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>125</v>
       </c>
@@ -31310,7 +31940,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>200</v>
       </c>
@@ -31318,7 +31948,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>202</v>
       </c>
@@ -31326,7 +31956,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>204</v>
       </c>
@@ -31334,7 +31964,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>206</v>
       </c>
@@ -31342,7 +31972,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>208</v>
       </c>
@@ -31350,7 +31980,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>210</v>
       </c>
@@ -31358,7 +31988,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>212</v>
       </c>
@@ -31366,7 +31996,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>214</v>
       </c>
@@ -31374,7 +32004,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>216</v>
       </c>
@@ -31382,7 +32012,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>200</v>
       </c>
@@ -31390,7 +32020,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>218</v>
       </c>
@@ -31398,7 +32028,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>220</v>
       </c>
@@ -31406,7 +32036,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>222</v>
       </c>
@@ -31414,7 +32044,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>224</v>
       </c>
@@ -31422,7 +32052,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>226</v>
       </c>
@@ -31430,7 +32060,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>228</v>
       </c>
@@ -31438,7 +32068,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>230</v>
       </c>
@@ -31446,7 +32076,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>232</v>
       </c>
@@ -31454,7 +32084,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>234</v>
       </c>
@@ -31462,7 +32092,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>236</v>
       </c>
@@ -31470,7 +32100,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>238</v>
       </c>
@@ -31478,7 +32108,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>240</v>
       </c>
@@ -31486,7 +32116,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>242</v>
       </c>
@@ -31494,7 +32124,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>244</v>
       </c>
@@ -31502,7 +32132,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>246</v>
       </c>
@@ -31510,7 +32140,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>248</v>
       </c>
@@ -31518,7 +32148,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>250</v>
       </c>
@@ -31526,7 +32156,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>252</v>
       </c>
@@ -31534,7 +32164,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>254</v>
       </c>
@@ -31542,7 +32172,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>256</v>
       </c>
@@ -31550,7 +32180,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>258</v>
       </c>
@@ -31558,7 +32188,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>260</v>
       </c>
@@ -31566,7 +32196,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>262</v>
       </c>
@@ -31574,7 +32204,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>264</v>
       </c>
@@ -31582,7 +32212,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>266</v>
       </c>
@@ -31590,7 +32220,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>268</v>
       </c>
@@ -31598,7 +32228,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>270</v>
       </c>
@@ -31606,7 +32236,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>272</v>
       </c>
@@ -31614,7 +32244,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>274</v>
       </c>
@@ -31622,7 +32252,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>276</v>
       </c>
@@ -31630,7 +32260,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>278</v>
       </c>
@@ -31638,7 +32268,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>280</v>
       </c>
@@ -31646,7 +32276,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>282</v>
       </c>
@@ -31654,7 +32284,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>284</v>
       </c>
@@ -31662,7 +32292,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>286</v>
       </c>
@@ -31670,7 +32300,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>288</v>
       </c>
@@ -31678,7 +32308,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>290</v>
       </c>
@@ -31686,7 +32316,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>292</v>
       </c>
@@ -31694,7 +32324,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>294</v>
       </c>
@@ -31702,7 +32332,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>296</v>
       </c>
@@ -31710,7 +32340,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>298</v>
       </c>
@@ -31718,7 +32348,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>300</v>
       </c>
@@ -31726,7 +32356,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>302</v>
       </c>
@@ -31734,7 +32364,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>304</v>
       </c>
@@ -31742,7 +32372,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>306</v>
       </c>
@@ -31750,7 +32380,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>308</v>
       </c>
@@ -31758,7 +32388,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>310</v>
       </c>
@@ -31766,7 +32396,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>312</v>
       </c>
@@ -31777,7 +32407,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>314</v>
       </c>
@@ -31785,7 +32415,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>316</v>
       </c>
@@ -31793,7 +32423,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>318</v>
       </c>
@@ -31801,7 +32431,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>320</v>
       </c>
@@ -31809,7 +32439,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>322</v>
       </c>
@@ -31817,7 +32447,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>324</v>
       </c>
@@ -31825,7 +32455,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>326</v>
       </c>
@@ -31833,7 +32463,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>328</v>
       </c>
@@ -31841,7 +32471,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>330</v>
       </c>
@@ -31849,7 +32479,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>332</v>
       </c>
@@ -31857,7 +32487,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>334</v>
       </c>
@@ -31865,7 +32495,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>59</v>
       </c>
@@ -31873,7 +32503,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>337</v>
       </c>
@@ -31881,7 +32511,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>339</v>
       </c>
@@ -31889,7 +32519,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>341</v>
       </c>
@@ -31897,7 +32527,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>343</v>
       </c>
@@ -31905,7 +32535,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>345</v>
       </c>
@@ -31913,7 +32543,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>347</v>
       </c>
@@ -31921,7 +32551,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>349</v>
       </c>
@@ -31929,7 +32559,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>351</v>
       </c>
@@ -31937,7 +32567,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>353</v>
       </c>
@@ -31945,7 +32575,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>355</v>
       </c>
@@ -31953,7 +32583,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>357</v>
       </c>
@@ -31961,7 +32591,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>359</v>
       </c>
@@ -31969,7 +32599,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>361</v>
       </c>
@@ -31977,7 +32607,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>363</v>
       </c>
@@ -31985,7 +32615,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>365</v>
       </c>
@@ -31993,7 +32623,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>367</v>
       </c>
@@ -32001,7 +32631,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>369</v>
       </c>
@@ -32009,7 +32639,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>370</v>
       </c>
@@ -32017,7 +32647,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>372</v>
       </c>
@@ -32025,7 +32655,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>374</v>
       </c>
@@ -32033,7 +32663,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>376</v>
       </c>
@@ -32041,7 +32671,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>378</v>
       </c>
@@ -32049,7 +32679,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>380</v>
       </c>
@@ -32057,7 +32687,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>382</v>
       </c>
@@ -32065,7 +32695,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>384</v>
       </c>
@@ -32073,7 +32703,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>386</v>
       </c>
@@ -32081,7 +32711,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>388</v>
       </c>
@@ -32089,7 +32719,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>390</v>
       </c>
@@ -32097,7 +32727,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>392</v>
       </c>
@@ -32105,7 +32735,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>394</v>
       </c>
@@ -32113,7 +32743,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>396</v>
       </c>
@@ -32121,7 +32751,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>397</v>
       </c>
@@ -32129,7 +32759,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>399</v>
       </c>
@@ -32137,7 +32767,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>401</v>
       </c>
@@ -32145,7 +32775,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>403</v>
       </c>
@@ -32153,7 +32783,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>405</v>
       </c>
@@ -32161,7 +32791,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>407</v>
       </c>
@@ -32169,7 +32799,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>409</v>
       </c>
@@ -32177,7 +32807,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>411</v>
       </c>
@@ -32185,7 +32815,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>413</v>
       </c>
@@ -32193,7 +32823,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>415</v>
       </c>
@@ -32201,7 +32831,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>417</v>
       </c>
@@ -32209,7 +32839,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>419</v>
       </c>
@@ -32217,7 +32847,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>421</v>
       </c>
@@ -32225,7 +32855,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>423</v>
       </c>
@@ -32233,7 +32863,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>425</v>
       </c>
@@ -32241,7 +32871,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>427</v>
       </c>
@@ -32249,7 +32879,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>429</v>
       </c>
@@ -32257,7 +32887,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>431</v>
       </c>
@@ -32265,7 +32895,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>433</v>
       </c>
@@ -32273,7 +32903,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>435</v>
       </c>
@@ -32281,7 +32911,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>437</v>
       </c>
@@ -32289,7 +32919,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>439</v>
       </c>
@@ -32297,7 +32927,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>441</v>
       </c>
@@ -32305,7 +32935,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>443</v>
       </c>
@@ -32313,7 +32943,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>445</v>
       </c>
@@ -32321,7 +32951,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>447</v>
       </c>
@@ -32329,7 +32959,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>448</v>
       </c>
@@ -32337,7 +32967,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>450</v>
       </c>
@@ -32345,7 +32975,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>452</v>
       </c>
@@ -32353,7 +32983,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>454</v>
       </c>
@@ -32361,7 +32991,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>456</v>
       </c>
@@ -32369,7 +32999,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>458</v>
       </c>
@@ -32377,7 +33007,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>460</v>
       </c>
@@ -32385,7 +33015,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>462</v>
       </c>
@@ -32393,7 +33023,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>464</v>
       </c>
@@ -32401,7 +33031,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>466</v>
       </c>
@@ -32409,7 +33039,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>468</v>
       </c>
@@ -32417,7 +33047,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>470</v>
       </c>
@@ -32425,7 +33055,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>472</v>
       </c>
@@ -32433,7 +33063,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>474</v>
       </c>
@@ -32441,7 +33071,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>476</v>
       </c>
@@ -32449,7 +33079,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>478</v>
       </c>
@@ -32457,7 +33087,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>480</v>
       </c>
@@ -32465,7 +33095,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>482</v>
       </c>
@@ -32473,7 +33103,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>484</v>
       </c>
@@ -32481,7 +33111,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>486</v>
       </c>
@@ -32489,7 +33119,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>488</v>
       </c>
@@ -32497,7 +33127,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
         <v>490</v>
       </c>
@@ -32505,7 +33135,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>492</v>
       </c>
@@ -32513,7 +33143,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>494</v>
       </c>
@@ -32521,7 +33151,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>496</v>
       </c>
@@ -32529,7 +33159,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
         <v>498</v>
       </c>
@@ -32537,7 +33167,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>500</v>
       </c>
@@ -32545,7 +33175,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
         <v>502</v>
       </c>
@@ -32553,7 +33183,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
         <v>504</v>
       </c>
@@ -32561,7 +33191,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>506</v>
       </c>
@@ -32569,7 +33199,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>508</v>
       </c>
@@ -32577,7 +33207,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
         <v>510</v>
       </c>
@@ -32585,7 +33215,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>512</v>
       </c>
@@ -32593,7 +33223,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
         <v>514</v>
       </c>
@@ -32601,7 +33231,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
         <v>516</v>
       </c>
@@ -32609,7 +33239,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
         <v>518</v>
       </c>
@@ -32617,7 +33247,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
         <v>520</v>
       </c>
@@ -32625,7 +33255,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
         <v>522</v>
       </c>
@@ -32633,7 +33263,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
         <v>524</v>
       </c>
@@ -32641,7 +33271,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
         <v>526</v>
       </c>
@@ -32649,7 +33279,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
         <v>528</v>
       </c>
@@ -32657,7 +33287,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
         <v>530</v>
       </c>
@@ -32665,7 +33295,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
         <v>532</v>
       </c>
@@ -32673,7 +33303,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
         <v>534</v>
       </c>
@@ -32681,7 +33311,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
         <v>536</v>
       </c>
@@ -32689,7 +33319,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
         <v>538</v>
       </c>
@@ -32697,7 +33327,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
         <v>540</v>
       </c>
@@ -32705,7 +33335,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
         <v>542</v>
       </c>
@@ -32713,7 +33343,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
         <v>544</v>
       </c>
@@ -32721,7 +33351,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
         <v>546</v>
       </c>
@@ -32729,7 +33359,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
         <v>548</v>
       </c>
@@ -32737,7 +33367,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
         <v>464</v>
       </c>
@@ -32745,7 +33375,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
         <v>550</v>
       </c>
@@ -32753,7 +33383,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
         <v>552</v>
       </c>
@@ -32761,7 +33391,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
         <v>554</v>
       </c>
@@ -32769,7 +33399,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
         <v>556</v>
       </c>
@@ -32777,7 +33407,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
         <v>558</v>
       </c>
@@ -32785,7 +33415,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
         <v>560</v>
       </c>
@@ -32793,7 +33423,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
         <v>562</v>
       </c>
@@ -32801,7 +33431,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
         <v>564</v>
       </c>
@@ -32809,7 +33439,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>566</v>
       </c>
@@ -32817,7 +33447,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>568</v>
       </c>
@@ -32825,7 +33455,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>570</v>
       </c>
@@ -32833,7 +33463,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>572</v>
       </c>
@@ -32841,7 +33471,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>574</v>
       </c>
@@ -32849,7 +33479,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>576</v>
       </c>
@@ -32857,7 +33487,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>578</v>
       </c>
@@ -32865,7 +33495,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>580</v>
       </c>
@@ -32873,7 +33503,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>582</v>
       </c>
@@ -32881,7 +33511,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>584</v>
       </c>
@@ -32889,7 +33519,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>586</v>
       </c>
@@ -32897,7 +33527,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>588</v>
       </c>
@@ -32905,7 +33535,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>590</v>
       </c>
@@ -32913,7 +33543,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>592</v>
       </c>
@@ -32921,7 +33551,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>594</v>
       </c>
@@ -32929,7 +33559,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>596</v>
       </c>
@@ -32937,7 +33567,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>598</v>
       </c>
@@ -32945,7 +33575,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>600</v>
       </c>
@@ -32953,7 +33583,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>602</v>
       </c>
@@ -32961,7 +33591,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>604</v>
       </c>
@@ -32969,7 +33599,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>606</v>
       </c>
@@ -32977,7 +33607,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>608</v>
       </c>
@@ -32985,7 +33615,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>610</v>
       </c>
@@ -32993,7 +33623,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>612</v>
       </c>
@@ -33001,7 +33631,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>614</v>
       </c>
@@ -33009,7 +33639,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>616</v>
       </c>
@@ -33017,7 +33647,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>618</v>
       </c>
@@ -33025,7 +33655,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>620</v>
       </c>
@@ -33033,7 +33663,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>622</v>
       </c>
@@ -33041,7 +33671,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>624</v>
       </c>
@@ -33049,7 +33679,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>626</v>
       </c>
@@ -33057,7 +33687,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>628</v>
       </c>
@@ -33065,7 +33695,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>630</v>
       </c>
@@ -33073,7 +33703,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>632</v>
       </c>
@@ -33081,7 +33711,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>632</v>
       </c>
@@ -33089,7 +33719,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>635</v>
       </c>
@@ -33097,7 +33727,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>637</v>
       </c>
@@ -33105,7 +33735,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>639</v>
       </c>
@@ -33113,7 +33743,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>641</v>
       </c>
@@ -33121,7 +33751,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>643</v>
       </c>
@@ -33129,7 +33759,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>645</v>
       </c>
@@ -33137,7 +33767,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>647</v>
       </c>
@@ -33145,7 +33775,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>649</v>
       </c>
@@ -33153,7 +33783,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>651</v>
       </c>
@@ -33161,7 +33791,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>653</v>
       </c>
@@ -33169,7 +33799,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>655</v>
       </c>
@@ -33177,7 +33807,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>657</v>
       </c>
@@ -33185,7 +33815,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>659</v>
       </c>
@@ -33193,7 +33823,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>661</v>
       </c>
@@ -33201,7 +33831,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>663</v>
       </c>
@@ -33209,7 +33839,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>665</v>
       </c>
@@ -33217,7 +33847,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>667</v>
       </c>
@@ -33225,7 +33855,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>669</v>
       </c>
@@ -33233,7 +33863,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>671</v>
       </c>
@@ -33241,7 +33871,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>673</v>
       </c>
@@ -33249,7 +33879,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>675</v>
       </c>
@@ -33257,7 +33887,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>677</v>
       </c>
@@ -33265,7 +33895,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>679</v>
       </c>
@@ -33273,7 +33903,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>681</v>
       </c>
@@ -33281,7 +33911,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>683</v>
       </c>
@@ -33289,7 +33919,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>685</v>
       </c>
@@ -33297,7 +33927,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>687</v>
       </c>
@@ -33305,7 +33935,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>689</v>
       </c>
@@ -33313,7 +33943,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>691</v>
       </c>
@@ -33321,7 +33951,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>693</v>
       </c>
@@ -33329,7 +33959,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>695</v>
       </c>
@@ -33337,7 +33967,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
         <v>697</v>
       </c>
@@ -33345,7 +33975,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" s="1" t="s">
         <v>699</v>
       </c>
@@ -33353,7 +33983,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" s="1" t="s">
         <v>701</v>
       </c>
@@ -33361,7 +33991,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" s="1" t="s">
         <v>703</v>
       </c>
@@ -33369,7 +33999,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" s="1" t="s">
         <v>705</v>
       </c>
@@ -33377,7 +34007,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" s="1" t="s">
         <v>707</v>
       </c>
@@ -33385,7 +34015,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="1" t="s">
         <v>709</v>
       </c>
@@ -33393,7 +34023,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" s="1" t="s">
         <v>711</v>
       </c>
@@ -33401,7 +34031,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" s="1" t="s">
         <v>713</v>
       </c>
@@ -33409,7 +34039,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" s="1" t="s">
         <v>715</v>
       </c>
@@ -33417,7 +34047,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" s="1" t="s">
         <v>717</v>
       </c>
@@ -33425,7 +34055,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" s="1" t="s">
         <v>719</v>
       </c>
@@ -33433,7 +34063,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" s="1" t="s">
         <v>721</v>
       </c>
@@ -33441,7 +34071,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" s="1" t="s">
         <v>723</v>
       </c>
@@ -33449,7 +34079,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" s="1" t="s">
         <v>725</v>
       </c>
@@ -33457,7 +34087,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" s="1" t="s">
         <v>727</v>
       </c>
@@ -33465,7 +34095,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" s="1" t="s">
         <v>729</v>
       </c>
@@ -33473,7 +34103,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" s="1" t="s">
         <v>731</v>
       </c>
@@ -33481,7 +34111,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" s="1" t="s">
         <v>733</v>
       </c>
@@ -33489,7 +34119,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" s="1" t="s">
         <v>735</v>
       </c>
@@ -33497,7 +34127,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" s="1" t="s">
         <v>737</v>
       </c>
@@ -33505,7 +34135,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" s="1" t="s">
         <v>739</v>
       </c>
@@ -33513,7 +34143,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" s="1" t="s">
         <v>741</v>
       </c>
@@ -33521,7 +34151,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" s="1" t="s">
         <v>743</v>
       </c>
@@ -33529,7 +34159,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" s="1" t="s">
         <v>745</v>
       </c>
@@ -33537,7 +34167,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" s="1" t="s">
         <v>747</v>
       </c>
@@ -33545,7 +34175,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" s="1" t="s">
         <v>749</v>
       </c>
@@ -33553,7 +34183,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" s="1" t="s">
         <v>751</v>
       </c>
@@ -33561,7 +34191,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" s="1" t="s">
         <v>502</v>
       </c>
@@ -33569,7 +34199,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A385" s="1" t="s">
         <v>753</v>
       </c>
@@ -33577,7 +34207,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" s="1" t="s">
         <v>755</v>
       </c>
@@ -33585,7 +34215,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" s="1" t="s">
         <v>757</v>
       </c>
@@ -33593,7 +34223,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A388" s="1" t="s">
         <v>759</v>
       </c>
@@ -33601,7 +34231,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A389" s="1" t="s">
         <v>761</v>
       </c>
@@ -33609,7 +34239,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A390" s="1" t="s">
         <v>763</v>
       </c>
@@ -33617,7 +34247,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A391" s="1" t="s">
         <v>765</v>
       </c>
@@ -33625,7 +34255,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A392" s="1" t="s">
         <v>767</v>
       </c>
@@ -33633,7 +34263,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A393" s="1" t="s">
         <v>769</v>
       </c>
@@ -33641,7 +34271,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A394" s="1" t="s">
         <v>771</v>
       </c>
@@ -33649,7 +34279,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A395" s="1" t="s">
         <v>773</v>
       </c>
@@ -33657,7 +34287,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A396" s="1" t="s">
         <v>775</v>
       </c>
@@ -33665,7 +34295,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A397" s="1" t="s">
         <v>777</v>
       </c>
@@ -33673,7 +34303,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A398" s="1" t="s">
         <v>779</v>
       </c>
@@ -33681,7 +34311,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A399" s="1" t="s">
         <v>781</v>
       </c>
@@ -33689,7 +34319,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A400" s="1" t="s">
         <v>783</v>
       </c>
@@ -33697,7 +34327,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" s="1" t="s">
         <v>785</v>
       </c>
@@ -33705,7 +34335,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A402" s="1" t="s">
         <v>787</v>
       </c>
@@ -33713,7 +34343,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" s="1" t="s">
         <v>789</v>
       </c>
@@ -33721,7 +34351,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A404" s="1" t="s">
         <v>791</v>
       </c>
@@ -33729,7 +34359,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A405" s="1" t="s">
         <v>793</v>
       </c>
@@ -33737,7 +34367,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A406" s="1" t="s">
         <v>795</v>
       </c>
@@ -33745,7 +34375,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A407" s="1" t="s">
         <v>797</v>
       </c>
@@ -33753,7 +34383,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" s="1" t="s">
         <v>799</v>
       </c>
@@ -33761,7 +34391,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" s="1" t="s">
         <v>801</v>
       </c>
@@ -33769,7 +34399,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A410" s="1" t="s">
         <v>484</v>
       </c>
@@ -33777,7 +34407,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A411" s="1" t="s">
         <v>803</v>
       </c>
@@ -33785,7 +34415,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A412" s="1" t="s">
         <v>805</v>
       </c>
@@ -33793,7 +34423,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A413" s="1" t="s">
         <v>807</v>
       </c>
@@ -33801,7 +34431,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A414" s="1" t="s">
         <v>809</v>
       </c>
@@ -33809,7 +34439,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A415" s="1" t="s">
         <v>811</v>
       </c>
@@ -33817,7 +34447,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A416" s="1" t="s">
         <v>813</v>
       </c>
@@ -33825,7 +34455,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A417" s="1" t="s">
         <v>815</v>
       </c>
@@ -33833,7 +34463,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A418" s="1" t="s">
         <v>817</v>
       </c>
@@ -33841,7 +34471,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" s="1" t="s">
         <v>819</v>
       </c>
@@ -33849,7 +34479,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A420" s="1" t="s">
         <v>115</v>
       </c>
@@ -33857,7 +34487,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A421" s="1" t="s">
         <v>822</v>
       </c>
@@ -33865,7 +34495,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A422" s="1" t="s">
         <v>824</v>
       </c>
@@ -33873,7 +34503,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A423" s="1" t="s">
         <v>826</v>
       </c>
@@ -33881,7 +34511,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" s="1" t="s">
         <v>828</v>
       </c>
@@ -33889,7 +34519,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A425" s="1" t="s">
         <v>830</v>
       </c>
@@ -33897,7 +34527,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A426" s="1" t="s">
         <v>832</v>
       </c>
@@ -33905,7 +34535,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" s="1" t="s">
         <v>834</v>
       </c>
@@ -33913,7 +34543,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A428" s="1" t="s">
         <v>836</v>
       </c>
@@ -33921,7 +34551,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A429" s="1" t="s">
         <v>838</v>
       </c>
@@ -33929,7 +34559,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A430" s="1" t="s">
         <v>840</v>
       </c>
@@ -33937,7 +34567,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A431" s="1" t="s">
         <v>842</v>
       </c>
@@ -33945,7 +34575,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" s="1" t="s">
         <v>844</v>
       </c>
@@ -33953,7 +34583,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A433" s="1" t="s">
         <v>846</v>
       </c>
@@ -33961,7 +34591,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A434" s="1" t="s">
         <v>848</v>
       </c>
@@ -33969,7 +34599,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A435" s="1" t="s">
         <v>849</v>
       </c>
@@ -33977,7 +34607,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A436" s="1" t="s">
         <v>850</v>
       </c>
@@ -33985,7 +34615,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A437" s="1" t="s">
         <v>852</v>
       </c>
@@ -33993,7 +34623,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A438" s="1" t="s">
         <v>854</v>
       </c>
@@ -34001,7 +34631,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A439" s="1" t="s">
         <v>856</v>
       </c>
@@ -34009,7 +34639,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A440" s="1" t="s">
         <v>858</v>
       </c>
@@ -34017,7 +34647,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A441" s="1" t="s">
         <v>860</v>
       </c>
@@ -34025,7 +34655,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A442" s="1" t="s">
         <v>862</v>
       </c>
@@ -34033,7 +34663,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A443" s="1" t="s">
         <v>864</v>
       </c>
@@ -34041,7 +34671,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A444" s="1" t="s">
         <v>866</v>
       </c>
@@ -34049,7 +34679,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A445" s="1" t="s">
         <v>868</v>
       </c>
@@ -34057,7 +34687,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A446" s="1" t="s">
         <v>870</v>
       </c>
@@ -34065,7 +34695,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A447" s="1" t="s">
         <v>872</v>
       </c>
@@ -34073,7 +34703,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A448" s="1" t="s">
         <v>874</v>
       </c>
@@ -34081,7 +34711,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A449" s="1" t="s">
         <v>876</v>
       </c>
@@ -34089,7 +34719,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A450" s="1" t="s">
         <v>878</v>
       </c>
@@ -34097,7 +34727,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A451" s="1" t="s">
         <v>880</v>
       </c>
@@ -34105,7 +34735,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A452" s="1" t="s">
         <v>882</v>
       </c>
@@ -34113,7 +34743,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A453" s="1" t="s">
         <v>884</v>
       </c>
@@ -34121,7 +34751,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A454" s="1" t="s">
         <v>886</v>
       </c>
@@ -34129,7 +34759,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A455" s="1" t="s">
         <v>888</v>
       </c>
@@ -34137,7 +34767,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A456" s="1" t="s">
         <v>242</v>
       </c>
@@ -34145,7 +34775,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A457" s="1" t="s">
         <v>891</v>
       </c>
@@ -34153,7 +34783,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A458" s="1" t="s">
         <v>892</v>
       </c>
@@ -34161,7 +34791,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A459" s="1" t="s">
         <v>894</v>
       </c>
@@ -34169,7 +34799,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A460" s="1" t="s">
         <v>896</v>
       </c>
@@ -34177,7 +34807,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A461" s="1" t="s">
         <v>898</v>
       </c>
@@ -34185,7 +34815,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A462" s="1" t="s">
         <v>900</v>
       </c>
@@ -34193,7 +34823,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A463" s="1" t="s">
         <v>902</v>
       </c>
@@ -34201,7 +34831,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A464" s="1" t="s">
         <v>904</v>
       </c>
@@ -34209,7 +34839,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A465" s="1" t="s">
         <v>906</v>
       </c>
@@ -34217,7 +34847,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A466" s="1" t="s">
         <v>908</v>
       </c>
@@ -34225,7 +34855,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A467" s="1" t="s">
         <v>910</v>
       </c>
@@ -34233,7 +34863,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A468" s="1" t="s">
         <v>447</v>
       </c>
@@ -34241,7 +34871,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A469" s="1" t="s">
         <v>913</v>
       </c>
@@ -34249,7 +34879,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A470" s="1" t="s">
         <v>915</v>
       </c>
@@ -34257,7 +34887,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A471" s="1" t="s">
         <v>917</v>
       </c>
@@ -34265,7 +34895,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A472" s="1" t="s">
         <v>919</v>
       </c>
@@ -34273,7 +34903,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A473" s="1" t="s">
         <v>921</v>
       </c>
@@ -34281,7 +34911,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A474" s="1" t="s">
         <v>923</v>
       </c>
@@ -34289,7 +34919,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A475" s="1" t="s">
         <v>925</v>
       </c>
@@ -34311,14 +34941,14 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2789</v>
       </c>
@@ -34326,7 +34956,7 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2791</v>
       </c>
@@ -34337,7 +34967,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2794</v>
       </c>
@@ -34348,7 +34978,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2797</v>
       </c>
@@ -34359,7 +34989,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2800</v>
       </c>
@@ -34370,7 +35000,7 @@
         <v>2802</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2803</v>
       </c>
@@ -34381,7 +35011,7 @@
         <v>2805</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2806</v>
       </c>
@@ -34392,7 +35022,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2809</v>
       </c>
@@ -34403,7 +35033,7 @@
         <v>2811</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>2812</v>
       </c>
@@ -34414,7 +35044,7 @@
         <v>2814</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>2815</v>
       </c>
@@ -34425,7 +35055,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2818</v>
       </c>
@@ -34436,7 +35066,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2821</v>
       </c>
@@ -34444,7 +35074,7 @@
         <v>2822</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2823</v>
       </c>
@@ -34452,7 +35082,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>2825</v>
       </c>
@@ -34460,7 +35090,7 @@
         <v>2826</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>2827</v>
       </c>
@@ -34468,7 +35098,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>2829</v>
       </c>
@@ -34476,7 +35106,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>2831</v>
       </c>
@@ -34484,7 +35114,7 @@
         <v>2832</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>2833</v>
       </c>
@@ -34492,7 +35122,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>2835</v>
       </c>
@@ -34500,7 +35130,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>2837</v>
       </c>
@@ -34508,7 +35138,7 @@
         <v>2838</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>2839</v>
       </c>
@@ -34516,7 +35146,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>2841</v>
       </c>
@@ -34524,7 +35154,7 @@
         <v>2842</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>2843</v>
       </c>
@@ -34532,7 +35162,7 @@
         <v>2844</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>2845</v>
       </c>
@@ -34540,7 +35170,7 @@
         <v>2846</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>2847</v>
       </c>
@@ -34559,9 +35189,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2849</v>
       </c>

--- a/verbos.xlsx
+++ b/verbos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DUE\Python\Conjugador6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84DB66F-555E-4260-A27A-E744BDF21D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D74BB9-65EE-49C7-9A9C-39695C6C4B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23865" yWindow="0" windowWidth="14640" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="verbos" sheetId="6" r:id="rId1"/>
@@ -20887,10 +20887,10 @@
   <dimension ref="A1:S290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C130" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C240" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C134" sqref="C1:C1048576"/>
+      <selection pane="bottomRight" activeCell="A291" sqref="A291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/verbos.xlsx
+++ b/verbos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DUE\Python\Conjugador6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93305F53-D65F-49E1-A75E-B8123CE1FEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9154D524-13FA-4FA7-91B1-8FABF745A879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="verbos" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3273" uniqueCount="2120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3416" uniqueCount="2238">
   <si>
     <t>abierto</t>
   </si>
@@ -17584,6 +17584,360 @@
   </si>
   <si>
     <t>tudni (képesnek lenni)</t>
+  </si>
+  <si>
+    <t>nyomtatni</t>
+  </si>
+  <si>
+    <t>telefonálni</t>
+  </si>
+  <si>
+    <t>lemondani</t>
+  </si>
+  <si>
+    <t>kivezetni</t>
+  </si>
+  <si>
+    <t>feloldani</t>
+  </si>
+  <si>
+    <t>feltölteni</t>
+  </si>
+  <si>
+    <t>lejáratni</t>
+  </si>
+  <si>
+    <t>elválasztani</t>
+  </si>
+  <si>
+    <t>összekötni</t>
+  </si>
+  <si>
+    <t>kivonni</t>
+  </si>
+  <si>
+    <t>szorozni</t>
+  </si>
+  <si>
+    <t>osztani</t>
+  </si>
+  <si>
+    <t>ülni</t>
+  </si>
+  <si>
+    <t>állni</t>
+  </si>
+  <si>
+    <t>keresni</t>
+  </si>
+  <si>
+    <t>kirúgni</t>
+  </si>
+  <si>
+    <t>imprimir</t>
+  </si>
+  <si>
+    <t>llamar</t>
+  </si>
+  <si>
+    <t>cancelar</t>
+  </si>
+  <si>
+    <t>desconectar</t>
+  </si>
+  <si>
+    <t>desbloquear</t>
+  </si>
+  <si>
+    <t>felszabadítani</t>
+  </si>
+  <si>
+    <t>liberar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cargar </t>
+  </si>
+  <si>
+    <t>caducar</t>
+  </si>
+  <si>
+    <t>separar</t>
+  </si>
+  <si>
+    <t>dividir</t>
+  </si>
+  <si>
+    <t>conectar</t>
+  </si>
+  <si>
+    <t>unir</t>
+  </si>
+  <si>
+    <t>restar</t>
+  </si>
+  <si>
+    <t>sustraer</t>
+  </si>
+  <si>
+    <t>multiplicar</t>
+  </si>
+  <si>
+    <t>pararse</t>
+  </si>
+  <si>
+    <t>buscar</t>
+  </si>
+  <si>
+    <t>despedir</t>
+  </si>
+  <si>
+    <t>felvállalni</t>
+  </si>
+  <si>
+    <t>asumir</t>
+  </si>
+  <si>
+    <t>elfogadni</t>
+  </si>
+  <si>
+    <t>aceptar</t>
+  </si>
+  <si>
+    <t>mocskolódni</t>
+  </si>
+  <si>
+    <t>difamar</t>
+  </si>
+  <si>
+    <t>átkozni</t>
+  </si>
+  <si>
+    <t>maldecir</t>
+  </si>
+  <si>
+    <t>esküdni</t>
+  </si>
+  <si>
+    <t>jurar</t>
+  </si>
+  <si>
+    <t>házasodni</t>
+  </si>
+  <si>
+    <t>casarse</t>
+  </si>
+  <si>
+    <t>válni</t>
+  </si>
+  <si>
+    <t>divorciarse</t>
+  </si>
+  <si>
+    <t>rágni</t>
+  </si>
+  <si>
+    <t>mascar</t>
+  </si>
+  <si>
+    <t>falazni</t>
+  </si>
+  <si>
+    <t>enmurar</t>
+  </si>
+  <si>
+    <t>betonozni</t>
+  </si>
+  <si>
+    <t>hormigonar</t>
+  </si>
+  <si>
+    <t>keverni</t>
+  </si>
+  <si>
+    <t>mezclar</t>
+  </si>
+  <si>
+    <t>imádkozni</t>
+  </si>
+  <si>
+    <t>rezar</t>
+  </si>
+  <si>
+    <t>gyónni</t>
+  </si>
+  <si>
+    <t>confesar</t>
+  </si>
+  <si>
+    <t>támadni</t>
+  </si>
+  <si>
+    <t>atacar</t>
+  </si>
+  <si>
+    <t>ellenállni</t>
+  </si>
+  <si>
+    <t>resistir</t>
+  </si>
+  <si>
+    <t>védekezni</t>
+  </si>
+  <si>
+    <t>defenderse</t>
+  </si>
+  <si>
+    <t>hányni</t>
+  </si>
+  <si>
+    <t>vomitar</t>
+  </si>
+  <si>
+    <t>megúnni</t>
+  </si>
+  <si>
+    <t>aburrirse</t>
+  </si>
+  <si>
+    <t>idegesíteni</t>
+  </si>
+  <si>
+    <t>irritar</t>
+  </si>
+  <si>
+    <t>kérdezni</t>
+  </si>
+  <si>
+    <t>preguntar</t>
+  </si>
+  <si>
+    <t>felszólítani</t>
+  </si>
+  <si>
+    <t>instar</t>
+  </si>
+  <si>
+    <t>utasítani</t>
+  </si>
+  <si>
+    <t>teclear</t>
+  </si>
+  <si>
+    <t>gépelni</t>
+  </si>
+  <si>
+    <t>kódolni</t>
+  </si>
+  <si>
+    <t>codificar</t>
+  </si>
+  <si>
+    <t>programozni</t>
+  </si>
+  <si>
+    <t>programar</t>
+  </si>
+  <si>
+    <t>titkosítani</t>
+  </si>
+  <si>
+    <t>enciptar</t>
+  </si>
+  <si>
+    <t>feloldani (titkosítást)</t>
+  </si>
+  <si>
+    <t>desencriptar</t>
+  </si>
+  <si>
+    <t>megfejteni</t>
+  </si>
+  <si>
+    <t>cifrar</t>
+  </si>
+  <si>
+    <t>descifrar</t>
+  </si>
+  <si>
+    <t>elfelejteni</t>
+  </si>
+  <si>
+    <t>olvidar</t>
+  </si>
+  <si>
+    <t>megbocsájtani</t>
+  </si>
+  <si>
+    <t>perdonar</t>
+  </si>
+  <si>
+    <t>félni</t>
+  </si>
+  <si>
+    <t>temer</t>
+  </si>
+  <si>
+    <t>késni</t>
+  </si>
+  <si>
+    <t>retrasarse</t>
+  </si>
+  <si>
+    <t>pontosítani</t>
+  </si>
+  <si>
+    <t>precisar</t>
+  </si>
+  <si>
+    <t>konkretizálni</t>
+  </si>
+  <si>
+    <t>concretar</t>
+  </si>
+  <si>
+    <t>specifikálni</t>
+  </si>
+  <si>
+    <t>especificar</t>
+  </si>
+  <si>
+    <t>perforálni</t>
+  </si>
+  <si>
+    <t>perforar</t>
+  </si>
+  <si>
+    <t>gustar</t>
+  </si>
+  <si>
+    <t>tetszeni</t>
+  </si>
+  <si>
+    <t>bemenni</t>
+  </si>
+  <si>
+    <t>entrar</t>
+  </si>
+  <si>
+    <t>maradni</t>
+  </si>
+  <si>
+    <t>quedar</t>
+  </si>
+  <si>
+    <t>necesitar</t>
+  </si>
+  <si>
+    <t>usar</t>
+  </si>
+  <si>
+    <t>használni</t>
+  </si>
+  <si>
+    <t>utazni</t>
+  </si>
+  <si>
+    <t>viajar</t>
   </si>
 </sst>
 </file>
@@ -18058,13 +18412,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S316"/>
+  <dimension ref="A1:S383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C333" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A384" sqref="A384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28556,6 +28910,569 @@
         <v>1966</v>
       </c>
     </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>2237</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:S279" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <filterColumn colId="5" showButton="0"/>

--- a/verbos.xlsx
+++ b/verbos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DUE\Python\Conjugador6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\istva\PycharmProjects\Conjugador7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9154D524-13FA-4FA7-91B1-8FABF745A879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A48F2BF-B0CD-40BD-8CCB-D61E806670C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="verbos" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3416" uniqueCount="2238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3418" uniqueCount="2239">
   <si>
     <t>abierto</t>
   </si>
@@ -17938,6 +17938,9 @@
   </si>
   <si>
     <t>viajar</t>
+  </si>
+  <si>
+    <t>comprender</t>
   </si>
 </sst>
 </file>
@@ -18412,38 +18415,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S383"/>
+  <dimension ref="A1:S384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C333" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A384" sqref="A384"/>
+      <selection pane="bottomRight" activeCell="B384" sqref="B384"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="19.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="19.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="20" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.81640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7265625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.1796875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7265625" style="1" customWidth="1"/>
     <col min="15" max="15" width="16" style="1" customWidth="1"/>
-    <col min="16" max="16" width="21.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="19.85546875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="21.81640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.54296875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.453125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="19.81640625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
@@ -18489,7 +18492,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
@@ -18515,7 +18518,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -18574,7 +18577,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="87" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -18633,7 +18636,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2051</v>
       </c>
@@ -18692,7 +18695,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
@@ -18751,7 +18754,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="87" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>71</v>
       </c>
@@ -18810,7 +18813,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>1872</v>
       </c>
@@ -18869,7 +18872,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="87" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>93</v>
       </c>
@@ -18928,7 +18931,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="87" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>106</v>
       </c>
@@ -18987,7 +18990,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>119</v>
       </c>
@@ -19046,7 +19049,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="87" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>132</v>
       </c>
@@ -19102,7 +19105,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="87" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>147</v>
       </c>
@@ -19158,7 +19161,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="87" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>159</v>
       </c>
@@ -19214,7 +19217,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="87" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>171</v>
       </c>
@@ -19270,7 +19273,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="87" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>183</v>
       </c>
@@ -19326,7 +19329,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>195</v>
       </c>
@@ -19382,7 +19385,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>207</v>
       </c>
@@ -19438,7 +19441,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>219</v>
       </c>
@@ -19494,7 +19497,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>231</v>
       </c>
@@ -19550,7 +19553,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>243</v>
       </c>
@@ -19606,7 +19609,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>255</v>
       </c>
@@ -19662,7 +19665,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>1873</v>
       </c>
@@ -19718,7 +19721,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>278</v>
       </c>
@@ -19774,7 +19777,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>290</v>
       </c>
@@ -19830,7 +19833,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>302</v>
       </c>
@@ -19886,7 +19889,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>314</v>
       </c>
@@ -19942,7 +19945,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>326</v>
       </c>
@@ -19998,7 +20001,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>336</v>
       </c>
@@ -20054,7 +20057,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>348</v>
       </c>
@@ -20110,7 +20113,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>360</v>
       </c>
@@ -20166,7 +20169,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>372</v>
       </c>
@@ -20222,7 +20225,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>384</v>
       </c>
@@ -20278,7 +20281,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>396</v>
       </c>
@@ -20334,7 +20337,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>408</v>
       </c>
@@ -20390,7 +20393,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>419</v>
       </c>
@@ -20446,7 +20449,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>431</v>
       </c>
@@ -20502,7 +20505,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>441</v>
       </c>
@@ -20558,7 +20561,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>453</v>
       </c>
@@ -20614,7 +20617,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>465</v>
       </c>
@@ -20670,7 +20673,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>477</v>
       </c>
@@ -20726,7 +20729,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>489</v>
       </c>
@@ -20782,7 +20785,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>500</v>
       </c>
@@ -20838,7 +20841,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>512</v>
       </c>
@@ -20894,7 +20897,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>500</v>
       </c>
@@ -20950,7 +20953,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>535</v>
       </c>
@@ -21006,7 +21009,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>547</v>
       </c>
@@ -21062,7 +21065,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>559</v>
       </c>
@@ -21118,7 +21121,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>571</v>
       </c>
@@ -21174,7 +21177,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>583</v>
       </c>
@@ -21230,7 +21233,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>595</v>
       </c>
@@ -21286,7 +21289,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>607</v>
       </c>
@@ -21342,7 +21345,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>619</v>
       </c>
@@ -21398,7 +21401,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>2119</v>
       </c>
@@ -21454,7 +21457,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>640</v>
       </c>
@@ -21510,7 +21513,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>652</v>
       </c>
@@ -21566,7 +21569,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>664</v>
       </c>
@@ -21622,7 +21625,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>676</v>
       </c>
@@ -21678,7 +21681,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>688</v>
       </c>
@@ -21734,7 +21737,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>700</v>
       </c>
@@ -21790,7 +21793,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>712</v>
       </c>
@@ -21846,7 +21849,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>724</v>
       </c>
@@ -21902,7 +21905,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>736</v>
       </c>
@@ -21958,7 +21961,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>748</v>
       </c>
@@ -22014,7 +22017,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>760</v>
       </c>
@@ -22070,7 +22073,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>772</v>
       </c>
@@ -22126,7 +22129,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>784</v>
       </c>
@@ -22182,7 +22185,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>796</v>
       </c>
@@ -22238,7 +22241,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>808</v>
       </c>
@@ -22294,7 +22297,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>820</v>
       </c>
@@ -22350,7 +22353,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>832</v>
       </c>
@@ -22406,7 +22409,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>844</v>
       </c>
@@ -22462,7 +22465,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>856</v>
       </c>
@@ -22518,7 +22521,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>868</v>
       </c>
@@ -22574,7 +22577,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>1871</v>
       </c>
@@ -22630,7 +22633,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>891</v>
       </c>
@@ -22686,7 +22689,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>1870</v>
       </c>
@@ -22742,7 +22745,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>914</v>
       </c>
@@ -22798,7 +22801,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>926</v>
       </c>
@@ -22854,7 +22857,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>938</v>
       </c>
@@ -22910,7 +22913,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>950</v>
       </c>
@@ -22966,7 +22969,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>962</v>
       </c>
@@ -23022,7 +23025,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>972</v>
       </c>
@@ -23078,7 +23081,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>983</v>
       </c>
@@ -23134,7 +23137,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>994</v>
       </c>
@@ -23190,7 +23193,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>1869</v>
       </c>
@@ -23246,7 +23249,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>1015</v>
       </c>
@@ -23302,7 +23305,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>1026</v>
       </c>
@@ -23358,7 +23361,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>1037</v>
       </c>
@@ -23414,7 +23417,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>1048</v>
       </c>
@@ -23470,7 +23473,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>1868</v>
       </c>
@@ -23526,7 +23529,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>1069</v>
       </c>
@@ -23582,7 +23585,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>1080</v>
       </c>
@@ -23638,7 +23641,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>1091</v>
       </c>
@@ -23694,7 +23697,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>1102</v>
       </c>
@@ -23750,7 +23753,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>1113</v>
       </c>
@@ -23806,7 +23809,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>1124</v>
       </c>
@@ -23862,7 +23865,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>1135</v>
       </c>
@@ -23918,7 +23921,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>1147</v>
       </c>
@@ -23974,7 +23977,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>1158</v>
       </c>
@@ -24030,7 +24033,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>1169</v>
       </c>
@@ -24086,7 +24089,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>1180</v>
       </c>
@@ -24142,7 +24145,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>1191</v>
       </c>
@@ -24198,7 +24201,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>1202</v>
       </c>
@@ -24254,7 +24257,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>1214</v>
       </c>
@@ -24310,7 +24313,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>1867</v>
       </c>
@@ -24366,7 +24369,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>1235</v>
       </c>
@@ -24422,7 +24425,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>1247</v>
       </c>
@@ -24478,7 +24481,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="109" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>1259</v>
       </c>
@@ -24534,7 +24537,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="110" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>1270</v>
       </c>
@@ -24590,7 +24593,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="111" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>1281</v>
       </c>
@@ -24646,7 +24649,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="112" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>1293</v>
       </c>
@@ -24702,7 +24705,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="113" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>1305</v>
       </c>
@@ -24758,7 +24761,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="114" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>1317</v>
       </c>
@@ -24814,7 +24817,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="115" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>1329</v>
       </c>
@@ -24870,7 +24873,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="116" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>3</v>
       </c>
@@ -24926,7 +24929,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>1351</v>
       </c>
@@ -24982,7 +24985,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="118" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>1363</v>
       </c>
@@ -25038,7 +25041,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>58</v>
       </c>
@@ -25094,7 +25097,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="120" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>1385</v>
       </c>
@@ -25150,7 +25153,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="121" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>1397</v>
       </c>
@@ -25206,7 +25209,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="122" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>1409</v>
       </c>
@@ -25262,7 +25265,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="123" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>1421</v>
       </c>
@@ -25318,7 +25321,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>1433</v>
       </c>
@@ -25374,7 +25377,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="125" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>1445</v>
       </c>
@@ -25430,7 +25433,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="126" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>1457</v>
       </c>
@@ -25486,7 +25489,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>1467</v>
       </c>
@@ -25511,7 +25514,7 @@
       </c>
       <c r="P127" s="5"/>
     </row>
-    <row r="128" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>1469</v>
       </c>
@@ -25567,7 +25570,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>1481</v>
       </c>
@@ -25623,7 +25626,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>1866</v>
       </c>
@@ -25679,7 +25682,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>1504</v>
       </c>
@@ -25735,7 +25738,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>1515</v>
       </c>
@@ -25791,7 +25794,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="133" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>1526</v>
       </c>
@@ -25847,7 +25850,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>1538</v>
       </c>
@@ -25903,7 +25906,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>1549</v>
       </c>
@@ -25959,7 +25962,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="136" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>1561</v>
       </c>
@@ -26015,7 +26018,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>1573</v>
       </c>
@@ -26071,7 +26074,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>1583</v>
       </c>
@@ -26127,7 +26130,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>1595</v>
       </c>
@@ -26183,7 +26186,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>1607</v>
       </c>
@@ -26239,7 +26242,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>1619</v>
       </c>
@@ -26295,7 +26298,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>1629</v>
       </c>
@@ -26351,7 +26354,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>1641</v>
       </c>
@@ -26407,7 +26410,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>1653</v>
       </c>
@@ -26463,7 +26466,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="145" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>1664</v>
       </c>
@@ -26519,7 +26522,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="146" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>1676</v>
       </c>
@@ -26575,7 +26578,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="147" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>1688</v>
       </c>
@@ -26631,7 +26634,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="148" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>1700</v>
       </c>
@@ -26648,7 +26651,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="149" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>1467</v>
       </c>
@@ -26704,7 +26707,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="150" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>1711</v>
       </c>
@@ -26760,7 +26763,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="151" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>1723</v>
       </c>
@@ -26816,7 +26819,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="152" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>1735</v>
       </c>
@@ -26872,7 +26875,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="153" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>1747</v>
       </c>
@@ -26889,7 +26892,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="154" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>1749</v>
       </c>
@@ -26906,7 +26909,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="155" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>1751</v>
       </c>
@@ -26923,7 +26926,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="156" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>1753</v>
       </c>
@@ -26940,7 +26943,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="157" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>1755</v>
       </c>
@@ -26957,7 +26960,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="158" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>1757</v>
       </c>
@@ -26974,7 +26977,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="159" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>1759</v>
       </c>
@@ -26991,7 +26994,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="160" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" ht="87" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>1761</v>
       </c>
@@ -27008,7 +27011,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>1763</v>
       </c>
@@ -27025,7 +27028,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>1765</v>
       </c>
@@ -27042,7 +27045,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>1765</v>
       </c>
@@ -27059,7 +27062,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>1768</v>
       </c>
@@ -27076,7 +27079,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>1770</v>
       </c>
@@ -27093,7 +27096,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>1772</v>
       </c>
@@ -27110,7 +27113,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>1774</v>
       </c>
@@ -27127,7 +27130,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>1776</v>
       </c>
@@ -27144,7 +27147,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>1445</v>
       </c>
@@ -27161,7 +27164,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
         <v>1865</v>
       </c>
@@ -27178,7 +27181,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>1779</v>
       </c>
@@ -27195,7 +27198,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>1781</v>
       </c>
@@ -27212,7 +27215,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>195</v>
       </c>
@@ -27229,7 +27232,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>1784</v>
       </c>
@@ -27246,7 +27249,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>1786</v>
       </c>
@@ -27263,7 +27266,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>1788</v>
       </c>
@@ -27280,7 +27283,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>1969</v>
       </c>
@@ -27297,7 +27300,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>1791</v>
       </c>
@@ -27314,7 +27317,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>1793</v>
       </c>
@@ -27331,7 +27334,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>1794</v>
       </c>
@@ -27348,7 +27351,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>1796</v>
       </c>
@@ -27365,7 +27368,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
         <v>1798</v>
       </c>
@@ -27382,7 +27385,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
         <v>1800</v>
       </c>
@@ -27399,7 +27402,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>1802</v>
       </c>
@@ -27416,7 +27419,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>1804</v>
       </c>
@@ -27433,7 +27436,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
         <v>1806</v>
       </c>
@@ -27450,7 +27453,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>1808</v>
       </c>
@@ -27467,7 +27470,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>1810</v>
       </c>
@@ -27484,7 +27487,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>4</v>
       </c>
@@ -27501,7 +27504,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>1813</v>
       </c>
@@ -27518,7 +27521,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>1813</v>
       </c>
@@ -27535,7 +27538,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
         <v>1816</v>
       </c>
@@ -27546,7 +27549,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>1818</v>
       </c>
@@ -27557,7 +27560,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>1820</v>
       </c>
@@ -27568,7 +27571,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>1822</v>
       </c>
@@ -27579,7 +27582,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>1824</v>
       </c>
@@ -27590,7 +27593,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>1826</v>
       </c>
@@ -27601,7 +27604,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>1828</v>
       </c>
@@ -27612,7 +27615,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>1830</v>
       </c>
@@ -27623,7 +27626,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
         <v>1832</v>
       </c>
@@ -27634,7 +27637,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>1834</v>
       </c>
@@ -27645,7 +27648,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>1836</v>
       </c>
@@ -27656,7 +27659,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>1838</v>
       </c>
@@ -27667,7 +27670,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>1840</v>
       </c>
@@ -27678,7 +27681,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>1842</v>
       </c>
@@ -27689,7 +27692,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>1844</v>
       </c>
@@ -27700,7 +27703,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A207" s="3" t="s">
         <v>1846</v>
       </c>
@@ -27711,7 +27714,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="s">
         <v>1847</v>
       </c>
@@ -27722,7 +27725,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>1848</v>
       </c>
@@ -27733,7 +27736,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>1850</v>
       </c>
@@ -27744,7 +27747,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>1852</v>
       </c>
@@ -27755,7 +27758,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A212" s="3" t="s">
         <v>1854</v>
       </c>
@@ -27766,7 +27769,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>1855</v>
       </c>
@@ -27777,7 +27780,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>1857</v>
       </c>
@@ -27788,7 +27791,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A215" s="3" t="s">
         <v>1859</v>
       </c>
@@ -27799,7 +27802,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>1861</v>
       </c>
@@ -27810,7 +27813,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>1862</v>
       </c>
@@ -27821,7 +27824,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>1863</v>
       </c>
@@ -27832,7 +27835,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>1900</v>
       </c>
@@ -27843,7 +27846,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>1901</v>
       </c>
@@ -27854,7 +27857,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>1904</v>
       </c>
@@ -27865,7 +27868,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>1906</v>
       </c>
@@ -27876,7 +27879,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>1908</v>
       </c>
@@ -27887,7 +27890,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>1910</v>
       </c>
@@ -27898,7 +27901,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>1912</v>
       </c>
@@ -27909,7 +27912,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>1914</v>
       </c>
@@ -27920,7 +27923,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>1915</v>
       </c>
@@ -27931,7 +27934,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>1918</v>
       </c>
@@ -27942,7 +27945,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>1920</v>
       </c>
@@ -27953,7 +27956,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>1922</v>
       </c>
@@ -27964,7 +27967,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>1925</v>
       </c>
@@ -27975,7 +27978,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>1927</v>
       </c>
@@ -27986,7 +27989,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>1929</v>
       </c>
@@ -27997,7 +28000,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>1931</v>
       </c>
@@ -28008,7 +28011,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>1933</v>
       </c>
@@ -28019,7 +28022,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>1935</v>
       </c>
@@ -28030,7 +28033,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>1948</v>
       </c>
@@ -28041,7 +28044,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>1940</v>
       </c>
@@ -28052,7 +28055,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>1942</v>
       </c>
@@ -28063,7 +28066,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>1945</v>
       </c>
@@ -28074,7 +28077,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>1947</v>
       </c>
@@ -28085,7 +28088,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>1951</v>
       </c>
@@ -28096,7 +28099,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>1955</v>
       </c>
@@ -28107,7 +28110,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>1947</v>
       </c>
@@ -28118,7 +28121,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>1958</v>
       </c>
@@ -28129,7 +28132,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>1960</v>
       </c>
@@ -28140,7 +28143,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>1962</v>
       </c>
@@ -28151,7 +28154,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>1964</v>
       </c>
@@ -28162,7 +28165,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>1993</v>
       </c>
@@ -28173,7 +28176,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>1995</v>
       </c>
@@ -28184,7 +28187,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
         <v>1997</v>
       </c>
@@ -28195,7 +28198,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>1999</v>
       </c>
@@ -28206,7 +28209,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>2009</v>
       </c>
@@ -28217,7 +28220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>2010</v>
       </c>
@@ -28228,7 +28231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
         <v>2011</v>
       </c>
@@ -28239,7 +28242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>2012</v>
       </c>
@@ -28250,7 +28253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
         <v>2013</v>
       </c>
@@ -28261,7 +28264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
         <v>2014</v>
       </c>
@@ -28272,7 +28275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>2015</v>
       </c>
@@ -28283,7 +28286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>2016</v>
       </c>
@@ -28294,7 +28297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
         <v>2017</v>
       </c>
@@ -28305,7 +28308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>2025</v>
       </c>
@@ -28316,7 +28319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
         <v>2024</v>
       </c>
@@ -28327,7 +28330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
         <v>2023</v>
       </c>
@@ -28338,7 +28341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
         <v>2022</v>
       </c>
@@ -28349,7 +28352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
         <v>2044</v>
       </c>
@@ -28360,7 +28363,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
         <v>2038</v>
       </c>
@@ -28371,7 +28374,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
         <v>994</v>
       </c>
@@ -28382,7 +28385,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
         <v>2037</v>
       </c>
@@ -28393,7 +28396,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
         <v>2012</v>
       </c>
@@ -28404,7 +28407,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
         <v>1538</v>
       </c>
@@ -28415,7 +28418,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
         <v>2036</v>
       </c>
@@ -28426,7 +28429,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
         <v>2035</v>
       </c>
@@ -28437,7 +28440,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
         <v>2034</v>
       </c>
@@ -28448,7 +28451,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
         <v>2033</v>
       </c>
@@ -28459,7 +28462,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
         <v>2040</v>
       </c>
@@ -28470,7 +28473,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
         <v>2042</v>
       </c>
@@ -28481,7 +28484,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
         <v>2046</v>
       </c>
@@ -28492,7 +28495,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
         <v>2048</v>
       </c>
@@ -28503,7 +28506,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
         <v>2050</v>
       </c>
@@ -28514,7 +28517,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
         <v>2053</v>
       </c>
@@ -28525,7 +28528,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
         <v>2055</v>
       </c>
@@ -28536,7 +28539,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
         <v>2057</v>
       </c>
@@ -28547,7 +28550,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
         <v>2059</v>
       </c>
@@ -28558,7 +28561,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
         <v>2061</v>
       </c>
@@ -28569,7 +28572,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
         <v>2063</v>
       </c>
@@ -28580,7 +28583,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
         <v>2065</v>
       </c>
@@ -28591,7 +28594,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
         <v>2067</v>
       </c>
@@ -28602,7 +28605,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
         <v>2068</v>
       </c>
@@ -28613,7 +28616,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
         <v>2070</v>
       </c>
@@ -28624,7 +28627,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
         <v>2073</v>
       </c>
@@ -28635,7 +28638,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
         <v>2074</v>
       </c>
@@ -28646,7 +28649,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
         <v>2074</v>
       </c>
@@ -28657,7 +28660,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
         <v>2077</v>
       </c>
@@ -28668,7 +28671,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
         <v>2079</v>
       </c>
@@ -28679,7 +28682,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
         <v>2081</v>
       </c>
@@ -28690,7 +28693,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
         <v>2082</v>
       </c>
@@ -28701,7 +28704,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" s="1" t="s">
         <v>2086</v>
       </c>
@@ -28712,7 +28715,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299" s="1" t="s">
         <v>2087</v>
       </c>
@@ -28723,7 +28726,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A300" s="1" t="s">
         <v>2088</v>
       </c>
@@ -28734,7 +28737,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" s="1" t="s">
         <v>1824</v>
       </c>
@@ -28745,7 +28748,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
         <v>2090</v>
       </c>
@@ -28756,7 +28759,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A303" s="1" t="s">
         <v>2091</v>
       </c>
@@ -28767,7 +28770,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A304" s="1" t="s">
         <v>2095</v>
       </c>
@@ -28778,7 +28781,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A305" s="1" t="s">
         <v>2097</v>
       </c>
@@ -28789,7 +28792,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
         <v>2098</v>
       </c>
@@ -28800,7 +28803,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A307" s="1" t="s">
         <v>2099</v>
       </c>
@@ -28811,7 +28814,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A308" s="1" t="s">
         <v>2100</v>
       </c>
@@ -28822,7 +28825,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
         <v>2101</v>
       </c>
@@ -28833,7 +28836,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A310" s="1" t="s">
         <v>2102</v>
       </c>
@@ -28844,7 +28847,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A311" s="1" t="s">
         <v>2103</v>
       </c>
@@ -28855,7 +28858,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
         <v>2104</v>
       </c>
@@ -28866,7 +28869,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A313" s="1" t="s">
         <v>2105</v>
       </c>
@@ -28877,7 +28880,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A314" s="1" t="s">
         <v>2113</v>
       </c>
@@ -28888,7 +28891,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A315" s="1" t="s">
         <v>2114</v>
       </c>
@@ -28899,7 +28902,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
         <v>2118</v>
       </c>
@@ -28910,7 +28913,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A317" s="1" t="s">
         <v>2120</v>
       </c>
@@ -28918,7 +28921,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A318" s="1" t="s">
         <v>2121</v>
       </c>
@@ -28926,7 +28929,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A319" s="1" t="s">
         <v>2122</v>
       </c>
@@ -28934,7 +28937,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A320" s="1" t="s">
         <v>2123</v>
       </c>
@@ -28942,7 +28945,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A321" s="1" t="s">
         <v>2124</v>
       </c>
@@ -28950,7 +28953,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A322" s="1" t="s">
         <v>2141</v>
       </c>
@@ -28958,7 +28961,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A323" s="1" t="s">
         <v>2125</v>
       </c>
@@ -28966,7 +28969,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A324" s="1" t="s">
         <v>2126</v>
       </c>
@@ -28977,7 +28980,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A325" s="1" t="s">
         <v>2126</v>
       </c>
@@ -28985,7 +28988,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A326" s="1" t="s">
         <v>2127</v>
       </c>
@@ -28993,7 +28996,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A327" s="1" t="s">
         <v>2128</v>
       </c>
@@ -29001,7 +29004,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A328" s="1" t="s">
         <v>2128</v>
       </c>
@@ -29009,7 +29012,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A329" s="1" t="s">
         <v>2129</v>
       </c>
@@ -29017,7 +29020,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A330" s="1" t="s">
         <v>2129</v>
       </c>
@@ -29028,7 +29031,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A331" s="1" t="s">
         <v>2130</v>
       </c>
@@ -29036,7 +29039,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A332" s="1" t="s">
         <v>2131</v>
       </c>
@@ -29044,7 +29047,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A333" s="1" t="s">
         <v>2132</v>
       </c>
@@ -29055,7 +29058,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A334" s="1" t="s">
         <v>2133</v>
       </c>
@@ -29063,7 +29066,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A335" s="1" t="s">
         <v>2134</v>
       </c>
@@ -29071,7 +29074,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A336" s="1" t="s">
         <v>2135</v>
       </c>
@@ -29082,7 +29085,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A337" s="1" t="s">
         <v>2135</v>
       </c>
@@ -29090,7 +29093,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A338" s="1" t="s">
         <v>2155</v>
       </c>
@@ -29098,7 +29101,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A339" s="1" t="s">
         <v>2157</v>
       </c>
@@ -29106,7 +29109,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A340" s="1" t="s">
         <v>2159</v>
       </c>
@@ -29114,7 +29117,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A341" s="1" t="s">
         <v>2161</v>
       </c>
@@ -29125,7 +29128,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
         <v>2163</v>
       </c>
@@ -29133,7 +29136,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A343" s="1" t="s">
         <v>2165</v>
       </c>
@@ -29141,7 +29144,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A344" s="1" t="s">
         <v>2167</v>
       </c>
@@ -29149,7 +29152,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A345" s="1" t="s">
         <v>2169</v>
       </c>
@@ -29157,7 +29160,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A346" s="1" t="s">
         <v>2171</v>
       </c>
@@ -29165,7 +29168,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A347" s="1" t="s">
         <v>2173</v>
       </c>
@@ -29173,7 +29176,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A348" s="1" t="s">
         <v>2175</v>
       </c>
@@ -29181,7 +29184,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A349" s="1" t="s">
         <v>2177</v>
       </c>
@@ -29189,7 +29192,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A350" s="1" t="s">
         <v>2179</v>
       </c>
@@ -29200,7 +29203,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A351" s="1" t="s">
         <v>1993</v>
       </c>
@@ -29211,7 +29214,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A352" s="1" t="s">
         <v>2181</v>
       </c>
@@ -29219,7 +29222,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A353" s="1" t="s">
         <v>2183</v>
       </c>
@@ -29227,7 +29230,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A354" s="1" t="s">
         <v>2185</v>
       </c>
@@ -29238,7 +29241,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A355" s="1" t="s">
         <v>2187</v>
       </c>
@@ -29246,7 +29249,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A356" s="1" t="s">
         <v>2189</v>
       </c>
@@ -29254,7 +29257,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A357" s="1" t="s">
         <v>2191</v>
       </c>
@@ -29262,7 +29265,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A358" s="1" t="s">
         <v>1202</v>
       </c>
@@ -29270,7 +29273,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A359" s="1" t="s">
         <v>2193</v>
       </c>
@@ -29278,7 +29281,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A360" s="1" t="s">
         <v>2195</v>
       </c>
@@ -29286,7 +29289,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A361" s="1" t="s">
         <v>2197</v>
       </c>
@@ -29294,7 +29297,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A362" s="1" t="s">
         <v>2199</v>
       </c>
@@ -29302,7 +29305,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A363" s="1" t="s">
         <v>2200</v>
       </c>
@@ -29310,7 +29313,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A364" s="1" t="s">
         <v>2202</v>
       </c>
@@ -29318,7 +29321,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A365" s="1" t="s">
         <v>2204</v>
       </c>
@@ -29326,7 +29329,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A366" s="1" t="s">
         <v>2206</v>
       </c>
@@ -29334,7 +29337,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A367" s="1" t="s">
         <v>2208</v>
       </c>
@@ -29345,7 +29348,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A368" s="1" t="s">
         <v>2204</v>
       </c>
@@ -29353,7 +29356,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" s="1" t="s">
         <v>2206</v>
       </c>
@@ -29361,7 +29364,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" s="1" t="s">
         <v>2211</v>
       </c>
@@ -29369,7 +29372,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" s="1" t="s">
         <v>2213</v>
       </c>
@@ -29377,7 +29380,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" s="1" t="s">
         <v>2215</v>
       </c>
@@ -29385,7 +29388,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" s="1" t="s">
         <v>2217</v>
       </c>
@@ -29393,7 +29396,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" s="1" t="s">
         <v>2219</v>
       </c>
@@ -29401,7 +29404,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" s="1" t="s">
         <v>2221</v>
       </c>
@@ -29409,7 +29412,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" s="1" t="s">
         <v>2223</v>
       </c>
@@ -29417,7 +29420,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" s="1" t="s">
         <v>2225</v>
       </c>
@@ -29425,7 +29428,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" s="1" t="s">
         <v>2228</v>
       </c>
@@ -29433,7 +29436,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" s="1" t="s">
         <v>2229</v>
       </c>
@@ -29441,7 +29444,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" s="1" t="s">
         <v>2231</v>
       </c>
@@ -29449,7 +29452,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" s="1" t="s">
         <v>453</v>
       </c>
@@ -29457,7 +29460,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" s="1" t="s">
         <v>2235</v>
       </c>
@@ -29465,12 +29468,20 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" s="1" t="s">
         <v>2236</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>2237</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A384" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>2238</v>
       </c>
     </row>
   </sheetData>
